--- a/numbers.xlsx
+++ b/numbers.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="25">
   <si>
     <t>h</t>
   </si>
@@ -92,6 +92,27 @@
   </si>
   <si>
     <t>1sigma</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>TU Skyline</t>
+  </si>
+  <si>
+    <t>size</t>
+  </si>
+  <si>
+    <t>size (int)</t>
+  </si>
+  <si>
+    <t>max size per slice</t>
+  </si>
+  <si>
+    <t>LNDW gr90</t>
+  </si>
+  <si>
+    <t>overlap</t>
   </si>
 </sst>
 </file>
@@ -100,8 +121,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0.0\ _€_-;\-* #,##0.0\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.0\ _€_-;\-* #,##0.0\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -143,8 +164,8 @@
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -153,7 +174,29 @@
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="7">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -164,6 +207,46 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="J7:X9" totalsRowShown="0">
+  <autoFilter ref="J7:X9"/>
+  <tableColumns count="15">
+    <tableColumn id="12" name="name"/>
+    <tableColumn id="1" name="h"/>
+    <tableColumn id="2" name="w"/>
+    <tableColumn id="3" name="frames"/>
+    <tableColumn id="4" name="r"/>
+    <tableColumn id="16" name="overlap"/>
+    <tableColumn id="5" name="nsub"/>
+    <tableColumn id="6" name="n" dataDxfId="6" dataCellStyle="Comma">
+      <calculatedColumnFormula>Table1[h]*Table1[w]*Table1[frames]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" name="nb">
+      <calculatedColumnFormula>ROUND(Table1[r]*Table1[r]*PI()+POWER(Table1[r],131/208),0)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" name="kmax" dataDxfId="0">
+      <calculatedColumnFormula>MIN(Table1[[#This Row],[frames]],2*Table1[[#This Row],[overlap]]+1)*Table1[nb]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" name="nnz" dataDxfId="5" dataCellStyle="Comma">
+      <calculatedColumnFormula>Table1[kmax]*Table1[n]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="10" name="slices" dataDxfId="4" dataCellStyle="Comma">
+      <calculatedColumnFormula>_xlfn.CEILING.MATH(Table1[n]/Table1[nsub])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="13" name="size" dataDxfId="3" dataCellStyle="Comma">
+      <calculatedColumnFormula>Table1[n]*4+Table1[nnz]*12</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="14" name="size (int)" dataDxfId="2" dataCellStyle="Comma">
+      <calculatedColumnFormula>Table1[n]*4+Table1[nnz]*8</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="15" name="max size per slice" dataDxfId="1" dataCellStyle="Comma">
+      <calculatedColumnFormula>Table1[nsub]*4+Table1[nsub]*Table1[kmax]*Table1[kmax]*12</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -429,19 +512,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:F30"/>
+  <dimension ref="A4:X30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.42578125" customWidth="1"/>
     <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" customWidth="1"/>
+    <col min="11" max="11" width="5" customWidth="1"/>
+    <col min="12" max="12" width="6" customWidth="1"/>
+    <col min="13" max="13" width="9.42578125" customWidth="1"/>
+    <col min="14" max="14" width="4" customWidth="1"/>
+    <col min="15" max="15" width="11.140625" customWidth="1"/>
+    <col min="16" max="16" width="7.5703125" customWidth="1"/>
+    <col min="17" max="17" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.5703125" customWidth="1"/>
+    <col min="19" max="19" width="8" customWidth="1"/>
+    <col min="20" max="20" width="15.7109375" customWidth="1"/>
+    <col min="21" max="21" width="10.42578125" customWidth="1"/>
+    <col min="22" max="22" width="17.85546875" customWidth="1"/>
+    <col min="23" max="23" width="16.7109375" customWidth="1"/>
+    <col min="24" max="24" width="18.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -449,7 +547,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -457,7 +555,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -465,23 +563,176 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7" t="s">
+        <v>0</v>
+      </c>
+      <c r="L7" t="s">
+        <v>1</v>
+      </c>
+      <c r="M7" t="s">
+        <v>2</v>
+      </c>
+      <c r="N7" t="s">
+        <v>4</v>
+      </c>
+      <c r="O7" t="s">
+        <v>24</v>
+      </c>
+      <c r="P7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>3</v>
+      </c>
+      <c r="R7" t="s">
+        <v>5</v>
+      </c>
+      <c r="S7" t="s">
+        <v>7</v>
+      </c>
+      <c r="T7" t="s">
+        <v>8</v>
+      </c>
+      <c r="U7" t="s">
+        <v>12</v>
+      </c>
+      <c r="V7" t="s">
+        <v>20</v>
+      </c>
+      <c r="W7" t="s">
+        <v>21</v>
+      </c>
+      <c r="X7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="3">
         <v>64</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J8" t="s">
+        <v>19</v>
+      </c>
+      <c r="K8">
+        <v>7594</v>
+      </c>
+      <c r="L8">
+        <v>14696</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <v>5</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>1024</v>
+      </c>
+      <c r="Q8" s="3">
+        <f>Table1[h]*Table1[w]*Table1[frames]</f>
+        <v>111601424</v>
+      </c>
+      <c r="R8">
+        <f>ROUND(Table1[r]*Table1[r]*PI()+POWER(Table1[r],131/208),0)</f>
+        <v>81</v>
+      </c>
+      <c r="S8">
+        <f>MIN(Table1[[#This Row],[frames]],2*Table1[[#This Row],[overlap]]+1)*Table1[nb]</f>
+        <v>81</v>
+      </c>
+      <c r="T8" s="3">
+        <f>Table1[kmax]*Table1[n]</f>
+        <v>9039715344</v>
+      </c>
+      <c r="U8" s="3">
+        <f>_xlfn.CEILING.MATH(Table1[n]/Table1[nsub])</f>
+        <v>108986</v>
+      </c>
+      <c r="V8" s="3">
+        <f>Table1[n]*4+Table1[nnz]*12</f>
+        <v>108922989824</v>
+      </c>
+      <c r="W8" s="3">
+        <f>Table1[n]*4+Table1[nnz]*8</f>
+        <v>72764128448</v>
+      </c>
+      <c r="X8" s="3">
+        <f>Table1[nsub]*4+Table1[nsub]*Table1[kmax]*Table1[kmax]*12</f>
+        <v>80625664</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="J9" t="s">
+        <v>23</v>
+      </c>
+      <c r="K9">
+        <v>480</v>
+      </c>
+      <c r="L9">
+        <v>640</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="N9">
+        <v>5</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>512</v>
+      </c>
+      <c r="Q9" s="3">
+        <f>Table1[h]*Table1[w]*Table1[frames]</f>
+        <v>307200</v>
+      </c>
+      <c r="R9">
+        <f>ROUND(Table1[r]*Table1[r]*PI()+POWER(Table1[r],131/208),0)</f>
+        <v>81</v>
+      </c>
+      <c r="S9">
+        <f>MIN(Table1[[#This Row],[frames]],2*Table1[[#This Row],[overlap]]+1)*Table1[nb]</f>
+        <v>81</v>
+      </c>
+      <c r="T9" s="3">
+        <f>Table1[kmax]*Table1[n]</f>
+        <v>24883200</v>
+      </c>
+      <c r="U9" s="3">
+        <f>_xlfn.CEILING.MATH(Table1[n]/Table1[nsub])</f>
+        <v>600</v>
+      </c>
+      <c r="V9" s="3">
+        <f>Table1[n]*4+Table1[nnz]*12</f>
+        <v>299827200</v>
+      </c>
+      <c r="W9" s="3">
+        <f>Table1[n]*4+Table1[nnz]*8</f>
+        <v>200294400</v>
+      </c>
+      <c r="X9" s="3">
+        <f>Table1[nsub]*4+Table1[nsub]*Table1[kmax]*Table1[kmax]*12</f>
+        <v>40312832</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -490,7 +741,7 @@
         <v>253440</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -506,7 +757,7 @@
         <v>1.9975360983644388</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -515,7 +766,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -524,7 +775,7 @@
         <v>53222400</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -533,7 +784,7 @@
         <v>3960</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="E15" t="s">
         <v>15</v>
       </c>
@@ -541,7 +792,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>9</v>
       </c>
@@ -647,5 +898,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>